--- a/src/main/resources/content.xlsx
+++ b/src/main/resources/content.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>hello</t>
   </si>
   <si>
-    <t>odeks</t>
+    <t>.ode*.</t>
   </si>
   <si>
     <t>sankcja</t>
@@ -36,18 +36,21 @@
   <si>
     <t>wynagro</t>
   </si>
+  <si>
+    <t>1.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,21 +62,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,66 +81,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,11 +128,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,31 +167,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,187 +212,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,6 +403,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -427,6 +462,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -434,17 +480,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,205 +503,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,13 +972,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1002,34 +995,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1037,6 +1020,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/content.xlsx
+++ b/src/main/resources/content.xlsx
@@ -14,11 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
   <si>
     <t>hello</t>
   </si>
   <si>
+    <t>jedynka</t>
+  </si>
+  <si>
+    <t>kodeks</t>
+  </si>
+  <si>
     <t>.ode*.</t>
   </si>
   <si>
@@ -34,7 +46,13 @@
     <t>dupa</t>
   </si>
   <si>
+    <t>wynagrodzenia</t>
+  </si>
+  <si>
     <t>wynagro</t>
+  </si>
+  <si>
+    <t>jedynka z kropka</t>
   </si>
   <si>
     <t>1.</t>
@@ -46,9 +64,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -59,15 +77,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,14 +123,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -99,105 +133,89 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +230,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -224,175 +254,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,11 +424,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,17 +487,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,183 +521,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,57 +990,92 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>2</v>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>3</v>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>4</v>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>5</v>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>6</v>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>7</v>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
